--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il1a</t>
+  </si>
+  <si>
+    <t>Il1r1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il1a</t>
-  </si>
-  <si>
-    <t>Il1r1</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09179766666666667</v>
+        <v>8.915726999999999</v>
       </c>
       <c r="H2">
-        <v>0.275393</v>
+        <v>26.747181</v>
       </c>
       <c r="I2">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.21972033333333</v>
+        <v>12.673913</v>
       </c>
       <c r="N2">
-        <v>39.659161</v>
+        <v>38.021739</v>
       </c>
       <c r="O2">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="P2">
-        <v>0.2311669015805739</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="Q2">
-        <v>1.213539480585889</v>
+        <v>112.997148329751</v>
       </c>
       <c r="R2">
-        <v>10.921855325273</v>
+        <v>1016.974334967759</v>
       </c>
       <c r="S2">
-        <v>0.003336986997638488</v>
+        <v>0.234043494199914</v>
       </c>
       <c r="T2">
-        <v>0.003336986997638488</v>
+        <v>0.234043494199914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09179766666666667</v>
+        <v>8.915726999999999</v>
       </c>
       <c r="H3">
-        <v>0.275393</v>
+        <v>26.747181</v>
       </c>
       <c r="I3">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>103.785567</v>
       </c>
       <c r="O3">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363013</v>
       </c>
       <c r="P3">
-        <v>0.6049494580123129</v>
+        <v>0.6388539132363011</v>
       </c>
       <c r="Q3">
-        <v>3.175757628092333</v>
+        <v>308.4412606374029</v>
       </c>
       <c r="R3">
-        <v>28.581818652831</v>
+        <v>2775.971345736627</v>
       </c>
       <c r="S3">
-        <v>0.008732688208445413</v>
+        <v>0.6388539132363013</v>
       </c>
       <c r="T3">
-        <v>0.008732688208445409</v>
+        <v>0.6388539132363011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09179766666666667</v>
+        <v>8.915726999999999</v>
       </c>
       <c r="H4">
-        <v>0.275393</v>
+        <v>26.747181</v>
       </c>
       <c r="I4">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.261089666666665</v>
+        <v>6.728406666666667</v>
       </c>
       <c r="N4">
-        <v>27.783269</v>
+        <v>20.18522</v>
       </c>
       <c r="O4">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="P4">
-        <v>0.1619442279807586</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="Q4">
-        <v>0.8501464221907776</v>
+        <v>59.98863698498</v>
       </c>
       <c r="R4">
-        <v>7.651317799716999</v>
+        <v>539.89773286482</v>
       </c>
       <c r="S4">
-        <v>0.00233772992335598</v>
+        <v>0.1242504825987572</v>
       </c>
       <c r="T4">
-        <v>0.00233772992335598</v>
+        <v>0.1242504825987572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09179766666666667</v>
+        <v>8.915726999999999</v>
       </c>
       <c r="H5">
-        <v>0.275393</v>
+        <v>26.747181</v>
       </c>
       <c r="I5">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.110909</v>
+        <v>0.1544473333333333</v>
       </c>
       <c r="N5">
-        <v>0.332727</v>
+        <v>0.463342</v>
       </c>
       <c r="O5">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027549</v>
       </c>
       <c r="P5">
-        <v>0.001939412426354648</v>
+        <v>0.002852109965027548</v>
       </c>
       <c r="Q5">
-        <v>0.01018118741233333</v>
+        <v>1.377010259878</v>
       </c>
       <c r="R5">
-        <v>0.091630686711</v>
+        <v>12.393092338902</v>
       </c>
       <c r="S5">
-        <v>2.799619671135406E-05</v>
+        <v>0.002852109965027549</v>
       </c>
       <c r="T5">
-        <v>2.799619671135405E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>6.267406666666667</v>
-      </c>
-      <c r="H6">
-        <v>18.80222</v>
-      </c>
-      <c r="I6">
-        <v>0.9855645986738488</v>
-      </c>
-      <c r="J6">
-        <v>0.9855645986738487</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>13.21972033333333</v>
-      </c>
-      <c r="N6">
-        <v>39.659161</v>
-      </c>
-      <c r="O6">
-        <v>0.2311669015805739</v>
-      </c>
-      <c r="P6">
-        <v>0.2311669015805739</v>
-      </c>
-      <c r="Q6">
-        <v>82.85336334860223</v>
-      </c>
-      <c r="R6">
-        <v>745.6802701374202</v>
-      </c>
-      <c r="S6">
-        <v>0.2278299145829354</v>
-      </c>
-      <c r="T6">
-        <v>0.2278299145829354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.267406666666667</v>
-      </c>
-      <c r="H7">
-        <v>18.80222</v>
-      </c>
-      <c r="I7">
-        <v>0.9855645986738488</v>
-      </c>
-      <c r="J7">
-        <v>0.9855645986738487</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>34.595189</v>
-      </c>
-      <c r="N7">
-        <v>103.785567</v>
-      </c>
-      <c r="O7">
-        <v>0.6049494580123129</v>
-      </c>
-      <c r="P7">
-        <v>0.6049494580123129</v>
-      </c>
-      <c r="Q7">
-        <v>216.8221181731933</v>
-      </c>
-      <c r="R7">
-        <v>1951.39906355874</v>
-      </c>
-      <c r="S7">
-        <v>0.5962167698038675</v>
-      </c>
-      <c r="T7">
-        <v>0.5962167698038675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>6.267406666666667</v>
-      </c>
-      <c r="H8">
-        <v>18.80222</v>
-      </c>
-      <c r="I8">
-        <v>0.9855645986738488</v>
-      </c>
-      <c r="J8">
-        <v>0.9855645986738487</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.261089666666665</v>
-      </c>
-      <c r="N8">
-        <v>27.783269</v>
-      </c>
-      <c r="O8">
-        <v>0.1619442279807586</v>
-      </c>
-      <c r="P8">
-        <v>0.1619442279807586</v>
-      </c>
-      <c r="Q8">
-        <v>58.04301511746444</v>
-      </c>
-      <c r="R8">
-        <v>522.38713605718</v>
-      </c>
-      <c r="S8">
-        <v>0.1596064980574026</v>
-      </c>
-      <c r="T8">
-        <v>0.1596064980574026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6.267406666666667</v>
-      </c>
-      <c r="H9">
-        <v>18.80222</v>
-      </c>
-      <c r="I9">
-        <v>0.9855645986738488</v>
-      </c>
-      <c r="J9">
-        <v>0.9855645986738487</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.110909</v>
-      </c>
-      <c r="N9">
-        <v>0.332727</v>
-      </c>
-      <c r="O9">
-        <v>0.001939412426354648</v>
-      </c>
-      <c r="P9">
-        <v>0.001939412426354648</v>
-      </c>
-      <c r="Q9">
-        <v>0.6951118059933333</v>
-      </c>
-      <c r="R9">
-        <v>6.256006253940001</v>
-      </c>
-      <c r="S9">
-        <v>0.001911416229643294</v>
-      </c>
-      <c r="T9">
-        <v>0.001911416229643293</v>
+        <v>0.002852109965027548</v>
       </c>
     </row>
   </sheetData>
